--- a/Datasets/CLEU/P0702.xlsx
+++ b/Datasets/CLEU/P0702.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="1825">
   <si>
     <t>Total de manzanas</t>
   </si>
@@ -5433,9 +5433,6 @@
   </si>
   <si>
     <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Metadato</t>
   </si>
   <si>
     <t>Nombre del Dataset</t>
@@ -5911,7 +5908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1799"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -34533,13 +34530,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1804</v>
+        <v>1821</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1803</v>
@@ -34547,71 +34546,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B4" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B6" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B7" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B8" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
   </sheetData>
@@ -34626,13 +34625,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1803</v>
@@ -34651,7 +34652,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -34659,7 +34660,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -34667,7 +34668,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
   </sheetData>
